--- a/fileformat/src/test/resources/excel2013test.xlsx
+++ b/fileformat/src/test/resources/excel2013test.xlsx
@@ -52,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,13 +149,10 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -191,7 +189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
